--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{55DC2147-F5D8-4303-9B53-CC44BD559EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FEB86C1E-4786-48B7-B96F-0A78A54BC68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19240" windowHeight="10530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19280" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
+  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
@@ -380,7 +380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD3350-E05D-41D0-9BB6-A2C67F8C79F3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
